--- a/data/trans_orig/P55S2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P55S2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{763D2A57-57C9-4C59-B360-A7397E83A57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5297CBC-1D00-42E3-B03A-E15092CBF9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{318B91D8-CC0A-4FBC-A9E6-8CC74D706F9B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{901BFBBC-8413-40E1-A24D-8867AF4E6368}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="647">
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -920,1045 +920,1066 @@
     <t>19,63%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
   </si>
   <si>
     <t>46,3%</t>
   </si>
   <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
     <t>31,22%</t>
   </si>
   <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>11,33%</t>
   </si>
   <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
   </si>
   <si>
     <t>21,25%</t>
   </si>
   <si>
-    <t>16,44%</t>
+    <t>26,67%</t>
   </si>
   <si>
     <t>24,52%</t>
   </si>
   <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
   </si>
   <si>
     <t>9,91%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>6,69%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
   </si>
 </sst>
 </file>
@@ -2370,7 +2391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35505C25-9A1B-4FD5-BD25-98D4D227C945}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AD5881-FC9B-4E6F-94BD-BD26D56D39FA}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6385,7 +6406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EB32CB-F7A3-49B5-B6A1-EF761B9AC48F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8FF1CA-C934-412B-9FBA-ABA408F39F90}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10598,7 +10619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB154E79-82FF-406F-9040-96A5A2622834}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A833FB62-334A-401B-80A4-E233D0442853}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14793,7 +14814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A3A684-1DDC-44E6-B4D6-D49E8A302198}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FD4107-5367-43D6-AE38-7D9DD36613D6}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15154,10 +15175,10 @@
         <v>306</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -15187,13 +15208,13 @@
         <v>1976</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>310</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -15600,10 +15621,10 @@
         <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>113</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -15612,13 +15633,13 @@
         <v>8676</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -15648,13 +15669,13 @@
         <v>653</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -15663,13 +15684,13 @@
         <v>653</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -15687,10 +15708,10 @@
         <v>144</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -15699,13 +15720,13 @@
         <v>8698</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -15714,13 +15735,13 @@
         <v>11516</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>252</v>
+        <v>359</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -15735,13 +15756,13 @@
         <v>1871</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -15750,13 +15771,13 @@
         <v>595</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -15765,13 +15786,13 @@
         <v>2466</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -15839,13 +15860,13 @@
         <v>1409</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -15854,13 +15875,13 @@
         <v>1119</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -15869,13 +15890,13 @@
         <v>2529</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -15890,13 +15911,13 @@
         <v>658</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -15911,7 +15932,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -15920,13 +15941,13 @@
         <v>658</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -15947,23 +15968,23 @@
         <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>374</v>
-      </c>
       <c r="M24" s="7">
         <v>0</v>
       </c>
@@ -15977,7 +15998,7 @@
         <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -15992,13 +16013,13 @@
         <v>3962</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -16007,13 +16028,13 @@
         <v>6877</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -16022,13 +16043,13 @@
         <v>10839</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>252</v>
+        <v>389</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -16043,13 +16064,13 @@
         <v>3257</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -16058,13 +16079,13 @@
         <v>4287</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -16073,13 +16094,13 @@
         <v>7544</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -16100,7 +16121,7 @@
         <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -16109,13 +16130,13 @@
         <v>604</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -16124,13 +16145,13 @@
         <v>604</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>399</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -16145,13 +16166,13 @@
         <v>3256</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -16160,13 +16181,13 @@
         <v>1108</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -16175,13 +16196,13 @@
         <v>4365</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>409</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -16196,13 +16217,13 @@
         <v>695</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -16217,7 +16238,7 @@
         <v>21</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -16226,13 +16247,13 @@
         <v>1689</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -16306,7 +16327,7 @@
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -16336,7 +16357,7 @@
         <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -16357,7 +16378,7 @@
         <v>22</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -16387,7 +16408,7 @@
         <v>22</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -16408,7 +16429,7 @@
         <v>22</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -16438,7 +16459,7 @@
         <v>22</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -16453,13 +16474,13 @@
         <v>5132</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H34" s="7">
         <v>17</v>
@@ -16468,13 +16489,13 @@
         <v>7017</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M34" s="7">
         <v>24</v>
@@ -16483,13 +16504,13 @@
         <v>12149</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -16504,13 +16525,13 @@
         <v>1319</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -16519,13 +16540,13 @@
         <v>4010</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M35" s="7">
         <v>11</v>
@@ -16534,13 +16555,13 @@
         <v>5329</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -16555,13 +16576,13 @@
         <v>688</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -16585,13 +16606,13 @@
         <v>688</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -16606,13 +16627,13 @@
         <v>1183</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -16621,13 +16642,13 @@
         <v>435</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -16636,13 +16657,13 @@
         <v>1618</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -16663,7 +16684,7 @@
         <v>22</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -16672,13 +16693,13 @@
         <v>445</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -16687,13 +16708,13 @@
         <v>445</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -16782,7 +16803,7 @@
         <v>22</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -16797,7 +16818,7 @@
         <v>22</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -16833,7 +16854,7 @@
         <v>22</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -16848,7 +16869,7 @@
         <v>22</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -16878,13 +16899,13 @@
         <v>328</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -16893,13 +16914,13 @@
         <v>328</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -16929,13 +16950,13 @@
         <v>2109</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>453</v>
+        <v>268</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="M43" s="7">
         <v>7</v>
@@ -16944,13 +16965,13 @@
         <v>3185</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -16980,13 +17001,13 @@
         <v>729</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -16995,13 +17016,13 @@
         <v>729</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -17031,13 +17052,13 @@
         <v>383</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -17046,13 +17067,13 @@
         <v>383</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>345</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -17082,13 +17103,13 @@
         <v>1119</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
@@ -17097,13 +17118,13 @@
         <v>1119</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -17133,13 +17154,13 @@
         <v>427</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
@@ -17148,13 +17169,13 @@
         <v>427</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -17243,7 +17264,7 @@
         <v>22</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -17258,7 +17279,7 @@
         <v>22</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -17294,7 +17315,7 @@
         <v>22</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -17309,7 +17330,7 @@
         <v>22</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -17324,13 +17345,13 @@
         <v>361</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -17345,7 +17366,7 @@
         <v>22</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -17354,13 +17375,13 @@
         <v>361</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>327</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -17375,13 +17396,13 @@
         <v>2128</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="H52" s="7">
         <v>25</v>
@@ -17390,13 +17411,13 @@
         <v>8771</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="M52" s="7">
         <v>30</v>
@@ -17405,13 +17426,13 @@
         <v>10898</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>487</v>
+        <v>151</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -17426,13 +17447,13 @@
         <v>2176</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="H53" s="7">
         <v>7</v>
@@ -17441,13 +17462,13 @@
         <v>2497</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="M53" s="7">
         <v>12</v>
@@ -17456,13 +17477,13 @@
         <v>4673</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -17477,13 +17498,13 @@
         <v>522</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -17498,7 +17519,7 @@
         <v>22</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -17507,13 +17528,13 @@
         <v>522</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>501</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -17528,13 +17549,13 @@
         <v>882</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H55" s="7">
         <v>3</v>
@@ -17543,13 +17564,13 @@
         <v>1128</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="M55" s="7">
         <v>5</v>
@@ -17558,13 +17579,13 @@
         <v>2010</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -17594,13 +17615,13 @@
         <v>725</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="M56" s="7">
         <v>2</v>
@@ -17609,13 +17630,13 @@
         <v>725</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -17704,7 +17725,7 @@
         <v>22</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -17755,7 +17776,7 @@
         <v>22</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -17806,7 +17827,7 @@
         <v>22</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -17836,10 +17857,10 @@
         <v>1498</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>24</v>
@@ -17851,13 +17872,13 @@
         <v>7431</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="M61" s="7">
         <v>13</v>
@@ -17866,13 +17887,13 @@
         <v>8930</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -17887,13 +17908,13 @@
         <v>1580</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="H62" s="7">
         <v>3</v>
@@ -17902,13 +17923,13 @@
         <v>3763</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>439</v>
+        <v>527</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="M62" s="7">
         <v>5</v>
@@ -17917,13 +17938,13 @@
         <v>5343</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -17953,13 +17974,13 @@
         <v>3969</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="M63" s="7">
         <v>6</v>
@@ -17968,13 +17989,13 @@
         <v>3969</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -18004,13 +18025,13 @@
         <v>5145</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="M64" s="7">
         <v>8</v>
@@ -18019,13 +18040,13 @@
         <v>5145</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -18040,13 +18061,13 @@
         <v>825</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -18055,13 +18076,13 @@
         <v>623</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="M65" s="7">
         <v>2</v>
@@ -18070,13 +18091,13 @@
         <v>1448</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -18150,7 +18171,7 @@
         <v>22</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -18165,7 +18186,7 @@
         <v>22</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
@@ -18180,7 +18201,7 @@
         <v>22</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -18201,7 +18222,7 @@
         <v>22</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -18216,7 +18237,7 @@
         <v>22</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
@@ -18231,7 +18252,7 @@
         <v>22</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -18252,7 +18273,7 @@
         <v>22</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -18267,7 +18288,7 @@
         <v>22</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -18282,7 +18303,7 @@
         <v>22</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -18297,13 +18318,13 @@
         <v>705</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="H70" s="7">
         <v>11</v>
@@ -18312,13 +18333,13 @@
         <v>7999</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="M70" s="7">
         <v>12</v>
@@ -18330,10 +18351,10 @@
         <v>176</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -18348,13 +18369,13 @@
         <v>2782</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="H71" s="7">
         <v>12</v>
@@ -18363,13 +18384,13 @@
         <v>9738</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M71" s="7">
         <v>16</v>
@@ -18378,13 +18399,13 @@
         <v>12521</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -18399,13 +18420,13 @@
         <v>749</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H72" s="7">
         <v>3</v>
@@ -18414,13 +18435,13 @@
         <v>1914</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="M72" s="7">
         <v>4</v>
@@ -18429,13 +18450,13 @@
         <v>2663</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -18450,13 +18471,13 @@
         <v>3572</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="H73" s="7">
         <v>10</v>
@@ -18465,13 +18486,13 @@
         <v>6259</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="M73" s="7">
         <v>15</v>
@@ -18480,13 +18501,13 @@
         <v>9832</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>349</v>
+        <v>582</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -18501,13 +18522,13 @@
         <v>1409</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -18516,13 +18537,13 @@
         <v>656</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="M74" s="7">
         <v>3</v>
@@ -18531,13 +18552,13 @@
         <v>2066</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -18605,13 +18626,13 @@
         <v>1409</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>587</v>
+        <v>470</v>
       </c>
       <c r="H76" s="7">
         <v>2</v>
@@ -18620,13 +18641,13 @@
         <v>1119</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="K76" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="M76" s="7">
         <v>4</v>
@@ -18635,13 +18656,13 @@
         <v>2529</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -18656,13 +18677,13 @@
         <v>658</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
@@ -18677,7 +18698,7 @@
         <v>22</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="M77" s="7">
         <v>1</v>
@@ -18686,13 +18707,13 @@
         <v>658</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="P77" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -18707,13 +18728,13 @@
         <v>361</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="H78" s="7">
         <v>1</v>
@@ -18722,13 +18743,13 @@
         <v>328</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="M78" s="7">
         <v>2</v>
@@ -18737,13 +18758,13 @@
         <v>689</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="P78" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -18758,13 +18779,13 @@
         <v>18996</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>559</v>
+        <v>608</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="H79" s="7">
         <v>105</v>
@@ -18773,13 +18794,13 @@
         <v>53334</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="M79" s="7">
         <v>134</v>
@@ -18788,13 +18809,13 @@
         <v>72330</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -18809,13 +18830,13 @@
         <v>14400</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="H80" s="7">
         <v>56</v>
@@ -18824,13 +18845,13 @@
         <v>34939</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="M80" s="7">
         <v>78</v>
@@ -18839,13 +18860,13 @@
         <v>49339</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>619</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -18860,13 +18881,13 @@
         <v>1959</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="H81" s="7">
         <v>16</v>
@@ -18875,13 +18896,13 @@
         <v>9499</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="M81" s="7">
         <v>19</v>
@@ -18890,13 +18911,13 @@
         <v>11458</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -18911,13 +18932,13 @@
         <v>20056</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="H82" s="7">
         <v>49</v>
@@ -18926,13 +18947,13 @@
         <v>28113</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>631</v>
+        <v>536</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>142</v>
+        <v>635</v>
       </c>
       <c r="M82" s="7">
         <v>78</v>
@@ -18941,13 +18962,13 @@
         <v>48170</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -18962,13 +18983,13 @@
         <v>6360</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="H83" s="7">
         <v>10</v>
@@ -18977,13 +18998,13 @@
         <v>4937</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>585</v>
+        <v>643</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="M83" s="7">
         <v>19</v>
@@ -18995,10 +19016,10 @@
         <v>266</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>527</v>
+        <v>646</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P55S2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P55S2-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5297CBC-1D00-42E3-B03A-E15092CBF9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68C5439E-F57D-40FB-A79B-B4615C0D051D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{901BFBBC-8413-40E1-A24D-8867AF4E6368}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F932EA37-AAE5-47C8-A006-5C79C2684600}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="645">
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -158,7 +158,7 @@
     <t>21,79%</t>
   </si>
   <si>
-    <t>81,73%</t>
+    <t>81,86%</t>
   </si>
   <si>
     <t>28,51%</t>
@@ -167,10 +167,10 @@
     <t>17,38%</t>
   </si>
   <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -179,7 +179,7 @@
     <t>39,03%</t>
   </si>
   <si>
-    <t>81,86%</t>
+    <t>81,79%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -191,1789 +191,1783 @@
     <t>18,42%</t>
   </si>
   <si>
-    <t>71,56%</t>
+    <t>70,79%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>48,12%</t>
+    <t>55,61%</t>
   </si>
   <si>
     <t>17,62%</t>
   </si>
   <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2012 (Tasa respuesta: 0,74%)</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
     <t>72,48%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2012 (Tasa respuesta: 0,74%)</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
   </si>
   <si>
     <t>11,46%</t>
   </si>
   <si>
-    <t>3,18%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2016 (Tasa respuesta: 0,43%)</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,83%)</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>25,93%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2015 (Tasa respuesta: 0,43%)</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
   </si>
   <si>
     <t>5,75%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,83%)</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
   </si>
   <si>
     <t>3,62%</t>
@@ -2391,7 +2385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AD5881-FC9B-4E6F-94BD-BD26D56D39FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC356F6-69A7-4625-BC3E-DE0BAD5A8927}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6406,7 +6400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8FF1CA-C934-412B-9FBA-ABA408F39F90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7261EB-21CD-4708-8D84-8BEF0D38315B}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8060,13 +8054,13 @@
         <v>1005</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -8075,13 +8069,13 @@
         <v>3026</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8111,13 +8105,13 @@
         <v>1091</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -8126,13 +8120,13 @@
         <v>1091</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8147,7 +8141,7 @@
         <v>1168</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>21</v>
@@ -8162,13 +8156,13 @@
         <v>4160</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M37" s="7">
         <v>5</v>
@@ -8177,13 +8171,13 @@
         <v>5327</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8338,7 +8332,7 @@
         <v>22</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8389,7 +8383,7 @@
         <v>22</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8440,7 +8434,7 @@
         <v>22</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8455,7 +8449,7 @@
         <v>1157</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>21</v>
@@ -8470,13 +8464,13 @@
         <v>2101</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M43" s="7">
         <v>3</v>
@@ -8485,10 +8479,10 @@
         <v>3257</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>119</v>
@@ -8521,7 +8515,7 @@
         <v>2101</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>21</v>
@@ -8593,7 +8587,7 @@
         <v>22</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -9566,7 +9560,7 @@
         <v>152</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -9853,7 +9847,7 @@
         <v>1160</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>21</v>
@@ -9868,7 +9862,7 @@
         <v>1160</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>21</v>
@@ -10021,7 +10015,7 @@
         <v>1090</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>21</v>
@@ -10057,7 +10051,7 @@
         <v>1000</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>21</v>
@@ -10072,7 +10066,7 @@
         <v>999</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>21</v>
@@ -10152,37 +10146,37 @@
         <v>22</v>
       </c>
       <c r="G76" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>0</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H76" s="7">
-        <v>0</v>
-      </c>
-      <c r="I76" s="7">
-        <v>0</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K76" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L76" s="7" t="s">
+      <c r="M76" s="7">
+        <v>0</v>
+      </c>
+      <c r="N76" s="7">
+        <v>0</v>
+      </c>
+      <c r="O76" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P76" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q76" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="M76" s="7">
-        <v>0</v>
-      </c>
-      <c r="N76" s="7">
-        <v>0</v>
-      </c>
-      <c r="O76" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P76" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q76" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -10203,37 +10197,37 @@
         <v>22</v>
       </c>
       <c r="G77" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H77" s="7">
+        <v>0</v>
+      </c>
+      <c r="I77" s="7">
+        <v>0</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H77" s="7">
-        <v>0</v>
-      </c>
-      <c r="I77" s="7">
-        <v>0</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K77" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L77" s="7" t="s">
+      <c r="M77" s="7">
+        <v>0</v>
+      </c>
+      <c r="N77" s="7">
+        <v>0</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P77" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q77" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="M77" s="7">
-        <v>0</v>
-      </c>
-      <c r="N77" s="7">
-        <v>0</v>
-      </c>
-      <c r="O77" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P77" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q77" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -10254,37 +10248,37 @@
         <v>22</v>
       </c>
       <c r="G78" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H78" s="7">
+        <v>0</v>
+      </c>
+      <c r="I78" s="7">
+        <v>0</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H78" s="7">
-        <v>0</v>
-      </c>
-      <c r="I78" s="7">
-        <v>0</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K78" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L78" s="7" t="s">
+      <c r="M78" s="7">
+        <v>0</v>
+      </c>
+      <c r="N78" s="7">
+        <v>0</v>
+      </c>
+      <c r="O78" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P78" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q78" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="M78" s="7">
-        <v>0</v>
-      </c>
-      <c r="N78" s="7">
-        <v>0</v>
-      </c>
-      <c r="O78" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P78" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q78" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -10299,13 +10293,13 @@
         <v>3275</v>
       </c>
       <c r="E79" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F79" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="G79" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H79" s="7">
         <v>16</v>
@@ -10314,13 +10308,13 @@
         <v>17061</v>
       </c>
       <c r="J79" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K79" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K79" s="7" t="s">
+      <c r="L79" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L79" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M79" s="7">
         <v>19</v>
@@ -10407,7 +10401,7 @@
         <v>22</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H81" s="7">
         <v>1</v>
@@ -10509,7 +10503,7 @@
         <v>22</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H83" s="7">
         <v>4</v>
@@ -10619,7 +10613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A833FB62-334A-401B-80A4-E233D0442853}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18D73B7-83BD-4980-A9CE-7821C52A89CA}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14362,7 +14356,7 @@
         <v>21</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="M76" s="7">
         <v>2</v>
@@ -14398,7 +14392,7 @@
         <v>22</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
@@ -14413,7 +14407,7 @@
         <v>22</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M77" s="7">
         <v>0</v>
@@ -14449,7 +14443,7 @@
         <v>22</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H78" s="7">
         <v>0</v>
@@ -14464,7 +14458,7 @@
         <v>22</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M78" s="7">
         <v>0</v>
@@ -14602,7 +14596,7 @@
         <v>22</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
@@ -14617,7 +14611,7 @@
         <v>22</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M81" s="7">
         <v>0</v>
@@ -14701,10 +14695,10 @@
         <v>280</v>
       </c>
       <c r="F83" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H83" s="7">
         <v>1</v>
@@ -14713,13 +14707,13 @@
         <v>1022</v>
       </c>
       <c r="J83" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L83" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K83" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L83" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M83" s="7">
         <v>4</v>
@@ -14728,13 +14722,13 @@
         <v>3733</v>
       </c>
       <c r="O83" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P83" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P83" s="7" t="s">
+      <c r="Q83" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q83" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -14814,7 +14808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FD4107-5367-43D6-AE38-7D9DD36613D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25EB25F-5FDE-425A-982B-90CD6DEFB21A}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14831,7 +14825,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -14944,37 +14938,37 @@
         <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -14995,37 +14989,37 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -15046,37 +15040,37 @@
         <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -15091,13 +15085,13 @@
         <v>2759</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -15106,13 +15100,13 @@
         <v>8448</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -15121,13 +15115,13 @@
         <v>11207</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -15142,13 +15136,13 @@
         <v>1392</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -15157,13 +15151,13 @@
         <v>3132</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -15172,13 +15166,13 @@
         <v>4524</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -15199,7 +15193,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -15208,13 +15202,13 @@
         <v>1976</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -15968,7 +15962,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>380</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -15998,7 +15992,7 @@
         <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -16013,13 +16007,13 @@
         <v>3962</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -16028,13 +16022,13 @@
         <v>6877</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -16043,13 +16037,13 @@
         <v>10839</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -16064,13 +16058,13 @@
         <v>3257</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -16079,13 +16073,13 @@
         <v>4287</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -16094,13 +16088,13 @@
         <v>7544</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -16121,7 +16115,7 @@
         <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>380</v>
+        <v>123</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -16130,13 +16124,13 @@
         <v>604</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -16145,13 +16139,13 @@
         <v>604</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -16166,13 +16160,13 @@
         <v>3256</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -16181,13 +16175,13 @@
         <v>1108</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -16196,13 +16190,13 @@
         <v>4365</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -16217,13 +16211,13 @@
         <v>695</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -16232,7 +16226,7 @@
         <v>994</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>269</v>
+        <v>412</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>21</v>
@@ -16905,7 +16899,7 @@
         <v>21</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>453</v>
+        <v>270</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -16914,13 +16908,13 @@
         <v>328</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -16950,13 +16944,13 @@
         <v>2109</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>268</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M43" s="7">
         <v>7</v>
@@ -16965,13 +16959,13 @@
         <v>3185</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -17001,13 +16995,13 @@
         <v>729</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -17016,13 +17010,13 @@
         <v>729</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -17052,13 +17046,13 @@
         <v>383</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -17067,13 +17061,13 @@
         <v>383</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -17103,13 +17097,13 @@
         <v>1119</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
@@ -17118,13 +17112,13 @@
         <v>1119</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -17154,13 +17148,13 @@
         <v>427</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
@@ -17169,13 +17163,13 @@
         <v>427</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -17249,7 +17243,7 @@
         <v>22</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -17264,22 +17258,22 @@
         <v>22</v>
       </c>
       <c r="L49" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0</v>
-      </c>
-      <c r="N49" s="7">
-        <v>0</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -17300,7 +17294,7 @@
         <v>22</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -17315,22 +17309,22 @@
         <v>22</v>
       </c>
       <c r="L50" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -17345,14 +17339,14 @@
         <v>361</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>482</v>
-      </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
@@ -17366,7 +17360,7 @@
         <v>22</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -17375,13 +17369,13 @@
         <v>361</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -17396,13 +17390,13 @@
         <v>2128</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="H52" s="7">
         <v>25</v>
@@ -17411,13 +17405,13 @@
         <v>8771</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="L52" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="M52" s="7">
         <v>30</v>
@@ -17426,13 +17420,13 @@
         <v>10898</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>151</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -17447,13 +17441,13 @@
         <v>2176</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="H53" s="7">
         <v>7</v>
@@ -17462,13 +17456,13 @@
         <v>2497</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="L53" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="M53" s="7">
         <v>12</v>
@@ -17477,13 +17471,13 @@
         <v>4673</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="Q53" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -17498,14 +17492,14 @@
         <v>522</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>503</v>
-      </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
@@ -17519,7 +17513,7 @@
         <v>22</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -17528,7 +17522,7 @@
         <v>522</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>21</v>
@@ -17549,13 +17543,13 @@
         <v>882</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>506</v>
+        <v>106</v>
       </c>
       <c r="H55" s="7">
         <v>3</v>
@@ -17564,13 +17558,13 @@
         <v>1128</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M55" s="7">
         <v>5</v>
@@ -17579,13 +17573,13 @@
         <v>2010</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -17606,7 +17600,7 @@
         <v>22</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H56" s="7">
         <v>2</v>
@@ -17615,13 +17609,13 @@
         <v>725</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M56" s="7">
         <v>2</v>
@@ -17630,13 +17624,13 @@
         <v>725</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -17725,7 +17719,7 @@
         <v>22</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -17740,7 +17734,7 @@
         <v>22</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -17776,7 +17770,7 @@
         <v>22</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -17791,7 +17785,7 @@
         <v>22</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -17827,7 +17821,7 @@
         <v>22</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -17842,7 +17836,7 @@
         <v>22</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -17857,10 +17851,10 @@
         <v>1498</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>24</v>
@@ -17872,13 +17866,13 @@
         <v>7431</v>
       </c>
       <c r="J61" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="L61" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="M61" s="7">
         <v>13</v>
@@ -17887,13 +17881,13 @@
         <v>8930</v>
       </c>
       <c r="O61" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q61" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -17908,13 +17902,13 @@
         <v>1580</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H62" s="7">
         <v>3</v>
@@ -17923,13 +17917,13 @@
         <v>3763</v>
       </c>
       <c r="J62" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="L62" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="M62" s="7">
         <v>5</v>
@@ -17938,13 +17932,13 @@
         <v>5343</v>
       </c>
       <c r="O62" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q62" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="P62" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -17974,13 +17968,13 @@
         <v>3969</v>
       </c>
       <c r="J63" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="L63" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="M63" s="7">
         <v>6</v>
@@ -17989,13 +17983,13 @@
         <v>3969</v>
       </c>
       <c r="O63" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q63" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="P63" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q63" s="7" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -18025,13 +18019,13 @@
         <v>5145</v>
       </c>
       <c r="J64" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="L64" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="M64" s="7">
         <v>8</v>
@@ -18040,13 +18034,13 @@
         <v>5145</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>543</v>
+        <v>174</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -18061,13 +18055,13 @@
         <v>825</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -18076,13 +18070,13 @@
         <v>623</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M65" s="7">
         <v>2</v>
@@ -18091,13 +18085,13 @@
         <v>1448</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -18186,7 +18180,7 @@
         <v>22</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
@@ -18201,7 +18195,7 @@
         <v>22</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -18237,7 +18231,7 @@
         <v>22</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
@@ -18252,7 +18246,7 @@
         <v>22</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -18288,7 +18282,7 @@
         <v>22</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -18303,7 +18297,7 @@
         <v>22</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -18318,13 +18312,13 @@
         <v>705</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H70" s="7">
         <v>11</v>
@@ -18333,13 +18327,13 @@
         <v>7999</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="M70" s="7">
         <v>12</v>
@@ -18351,10 +18345,10 @@
         <v>176</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -18369,13 +18363,13 @@
         <v>2782</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H71" s="7">
         <v>12</v>
@@ -18384,13 +18378,13 @@
         <v>9738</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="M71" s="7">
         <v>16</v>
@@ -18399,13 +18393,13 @@
         <v>12521</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -18420,13 +18414,13 @@
         <v>749</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H72" s="7">
         <v>3</v>
@@ -18435,13 +18429,13 @@
         <v>1914</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="M72" s="7">
         <v>4</v>
@@ -18450,13 +18444,13 @@
         <v>2663</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -18471,13 +18465,13 @@
         <v>3572</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H73" s="7">
         <v>10</v>
@@ -18486,13 +18480,13 @@
         <v>6259</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M73" s="7">
         <v>15</v>
@@ -18501,13 +18495,13 @@
         <v>9832</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -18522,13 +18516,13 @@
         <v>1409</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -18537,13 +18531,13 @@
         <v>656</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M74" s="7">
         <v>3</v>
@@ -18552,13 +18546,13 @@
         <v>2066</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -18632,7 +18626,7 @@
         <v>21</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H76" s="7">
         <v>2</v>
@@ -18641,13 +18635,13 @@
         <v>1119</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="K76" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="M76" s="7">
         <v>4</v>
@@ -18656,13 +18650,13 @@
         <v>2529</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -18677,13 +18671,13 @@
         <v>658</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
@@ -18698,7 +18692,7 @@
         <v>22</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M77" s="7">
         <v>1</v>
@@ -18707,13 +18701,13 @@
         <v>658</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="P77" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -18728,13 +18722,13 @@
         <v>361</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H78" s="7">
         <v>1</v>
@@ -18743,13 +18737,13 @@
         <v>328</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="M78" s="7">
         <v>2</v>
@@ -18758,13 +18752,13 @@
         <v>689</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="P78" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -18779,13 +18773,13 @@
         <v>18996</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H79" s="7">
         <v>105</v>
@@ -18794,13 +18788,13 @@
         <v>53334</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M79" s="7">
         <v>134</v>
@@ -18809,13 +18803,13 @@
         <v>72330</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -18830,13 +18824,13 @@
         <v>14400</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H80" s="7">
         <v>56</v>
@@ -18845,13 +18839,13 @@
         <v>34939</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M80" s="7">
         <v>78</v>
@@ -18860,10 +18854,10 @@
         <v>49339</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="Q80" s="7" t="s">
         <v>57</v>
@@ -18884,10 +18878,10 @@
         <v>349</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H81" s="7">
         <v>16</v>
@@ -18896,13 +18890,13 @@
         <v>9499</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="M81" s="7">
         <v>19</v>
@@ -18911,13 +18905,13 @@
         <v>11458</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -18932,13 +18926,13 @@
         <v>20056</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H82" s="7">
         <v>49</v>
@@ -18947,13 +18941,13 @@
         <v>28113</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="M82" s="7">
         <v>78</v>
@@ -18962,13 +18956,13 @@
         <v>48170</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -18983,13 +18977,13 @@
         <v>6360</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H83" s="7">
         <v>10</v>
@@ -18998,13 +18992,13 @@
         <v>4937</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="M83" s="7">
         <v>19</v>
@@ -19013,13 +19007,13 @@
         <v>11296</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>266</v>
+        <v>642</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
